--- a/src/python/data.xlsx
+++ b/src/python/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tuan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F8E8BB-670E-4EA0-9C83-7A57DD8989D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE88BAB3-C72A-4295-86B3-6CE02EAFFE4A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E3FA9F07-2E47-4CDC-8A86-05BB42D222D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B0503391-ED43-4934-BB0C-8EF2349B673F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,58 +31,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>budget</t>
-  </si>
-  <si>
-    <t>gross</t>
-  </si>
-  <si>
-    <t>user_vote</t>
-  </si>
-  <si>
-    <t>critic_review_ratio</t>
-  </si>
-  <si>
-    <t>movie_fb</t>
-  </si>
-  <si>
-    <t>director_fb</t>
-  </si>
-  <si>
-    <t>actor1_fb</t>
-  </si>
-  <si>
-    <t>other_actors_fb</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>face_number</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>R</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
+  <si>
+    <t xml:space="preserve">Thời tiết </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhiệt độ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Độ ẩm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gió </t>
+  </si>
+  <si>
+    <t>Đi chơi?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nắng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nóng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cao </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yếu </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mạnh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U ám </t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mưa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mát </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lạnh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bình thường </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,13 +96,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,8 +135,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,16 +452,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903B3939-DE2F-41B4-A8FC-D85DF7715F90}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAF2E48-8F84-421E-B3B0-E7CD5113566B}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="A2:M2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,73 +480,163 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>8000000</v>
-      </c>
-      <c r="B2">
-        <v>59889948</v>
-      </c>
-      <c r="C2">
-        <v>355810</v>
-      </c>
-      <c r="D2">
-        <v>0.30371203600000002</v>
-      </c>
-      <c r="E2">
-        <v>15000</v>
-      </c>
-      <c r="F2">
-        <v>36</v>
-      </c>
-      <c r="G2">
-        <v>7000</v>
-      </c>
-      <c r="H2">
-        <v>177</v>
-      </c>
-      <c r="I2">
-        <v>101</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>2006</v>
-      </c>
-      <c r="L2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/python/data.xlsx
+++ b/src/python/data.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tuan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tuan\Desktop\TEst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE88BAB3-C72A-4295-86B3-6CE02EAFFE4A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DCE043-FEA0-4B8C-B56A-AA86ACCDCCE2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B0503391-ED43-4934-BB0C-8EF2349B673F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8C7298C2-2E89-4BD0-9B47-7E6BC8D69368}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="dataset_small" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,64 +31,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
-  <si>
-    <t xml:space="preserve">Thời tiết </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhiệt độ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Độ ẩm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gió </t>
-  </si>
-  <si>
-    <t>Đi chơi?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nắng </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nóng </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cao </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yếu </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="17">
+  <si>
+    <t>Play?</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t xml:space="preserve">Mạnh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">U ám </t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">Mưa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mát </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lạnh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bình thường </t>
+    <t>Outlook</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Weak</t>
+  </si>
+  <si>
+    <t>Strong</t>
+  </si>
+  <si>
+    <t>Overcast</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Mild</t>
+  </si>
+  <si>
+    <t>Cool</t>
+  </si>
+  <si>
+    <t>Normal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,31 +96,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -135,10 +117,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,84 +432,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAF2E48-8F84-421E-B3B0-E7CD5113566B}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312ED5E3-0723-462E-B403-4835FC7FDB03}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -540,13 +517,13 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -557,13 +534,13 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -577,15 +554,15 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -594,32 +571,32 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
+      <c r="A9" t="s">
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -628,14 +605,98 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>12</v>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/python/data.xlsx
+++ b/src/python/data.xlsx
@@ -1,94 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tuan\Desktop\TEst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tuan\Desktop\KNN_daase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DCE043-FEA0-4B8C-B56A-AA86ACCDCCE2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D85ECE8D-3693-46E9-B6F5-4D5D62B999AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8C7298C2-2E89-4BD0-9B47-7E6BC8D69368}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="dataset_small" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="17">
-  <si>
-    <t>Play?</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
+  <si>
+    <t>Gió</t>
+  </si>
+  <si>
+    <t>Nắng</t>
+  </si>
+  <si>
+    <t>Nóng</t>
+  </si>
+  <si>
+    <t>Cao</t>
+  </si>
+  <si>
+    <t>Yếu</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>Mạnh</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Outlook</t>
-  </si>
-  <si>
-    <t>Temp</t>
-  </si>
-  <si>
-    <t>Humidity</t>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>Sunny</t>
-  </si>
-  <si>
-    <t>Hot</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Weak</t>
-  </si>
-  <si>
-    <t>Strong</t>
-  </si>
-  <si>
-    <t>Overcast</t>
-  </si>
-  <si>
-    <t>Rain</t>
-  </si>
-  <si>
-    <t>Mild</t>
-  </si>
-  <si>
-    <t>Cool</t>
-  </si>
-  <si>
-    <t>Normal</t>
+    <t>Mưa</t>
+  </si>
+  <si>
+    <t>Mát</t>
+  </si>
+  <si>
+    <t>Lạnh</t>
+  </si>
+  <si>
+    <t>Thời tiết</t>
+  </si>
+  <si>
+    <t>Nhiệt độ</t>
+  </si>
+  <si>
+    <t>Độ ẩm</t>
+  </si>
+  <si>
+    <t>Đi chơi?</t>
+  </si>
+  <si>
+    <t>U ám</t>
+  </si>
+  <si>
+    <t>Bình thường</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,16 +85,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -113,15 +402,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -432,272 +910,186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312ED5E3-0723-462E-B403-4835FC7FDB03}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
         <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>